--- a/biology/Botanique/Jardins_botaniques_de_Gibraltar/Jardins_botaniques_de_Gibraltar.xlsx
+++ b/biology/Botanique/Jardins_botaniques_de_Gibraltar/Jardins_botaniques_de_Gibraltar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jardins botaniques d'Alameda ou de Gibraltar ou en espagnol :  La Alameda, Jardín Botánico de Gibraltar, est un jardin botanique de plus ou moins 6 hectares, qui se situe dans la ville du Gibraltar.
 </t>
@@ -511,7 +523,9 @@
           <t>Emplacement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'Alameda, Red Sands Road, PO Box 843. Gibraltar
 36° 07′ N, 5° 21′ O
@@ -543,7 +557,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jardins d'Alameda ont été fondés en 1816 à l'initiative du gouverneur, le général George Don pour fournir une zone de loisir aux citoyens de Gibraltar. 
 Pendant plusieurs années les jardins ont rempli ce but mais dans les années 1970, ils ont été complètement abandonnés. Le projet "botanique" des jardins du Gibraltar a commencé en juin 1991 lorsque le gouvernement de Gibraltar a embauché à une entreprise de responsables environnementaux pour sauvegarder la flore de Gibraltar. Ils ont en effet travaillé pour restaurer les jardins et les convertir en jardins botaniques. La même année, le Dr. John Cortes  a été nommé directeur de l'institution.
@@ -575,7 +591,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les plantes des Jardins représentent une combinaison d'espèces autochtones. Certaines ont en effet été amenées de l'étranger, souvent d'anciens territoires britanniques comme l'Australie et l'Afrique du Sud, avec lesquelles Gibraltar avait des contacts maritimes à l'époque de l'Empire britannique. 
 Depuis 1991 de nombreuses espèces ont été introduites à Gibraltar, certaines pour la première fois.
@@ -624,7 +642,9 @@
           <t>Équipements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Index Seminum
 Le cottage du Musée, ouvert au public depuis mai 2006, est hébergé dans une maison de champ du XVIIe siècle. Il sert de lieu d'information de l'Histoire Naturelle.
